--- a/results/run_2/results.xlsx
+++ b/results/run_2/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Homosexuality-Simulator/results/run_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BF5F3B-C74C-3F45-8809-8C0316652AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14EFDC0-043D-9841-A094-C8F98D9C8ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37380" windowHeight="21100" xr2:uid="{2669D1D3-C75B-5345-8F98-4F265E29D65A}"/>
   </bookViews>
@@ -8115,7 +8115,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8128,7 +8128,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" b="1"/>
                   <a:t>GENERATION</a:t>
                 </a:r>
               </a:p>
@@ -8147,7 +8147,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8233,7 +8233,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8246,7 +8246,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" b="1"/>
                   <a:t>PEOPLE</a:t>
                 </a:r>
               </a:p>
@@ -8265,7 +8265,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -9306,7 +9306,7 @@
   <dimension ref="A1:G333"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K5" sqref="K4:K5"/>
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
